--- a/biology/Botanique/Square_Saint-Bernard_-_Saïd-Bouziri/Square_Saint-Bernard_-_Saïd-Bouziri.xlsx
+++ b/biology/Botanique/Square_Saint-Bernard_-_Saïd-Bouziri/Square_Saint-Bernard_-_Saïd-Bouziri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Saint-Bernard_-_Sa%C3%AFd-Bouziri</t>
+          <t>Square_Saint-Bernard_-_Saïd-Bouziri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Saint-Bernard - Saïd-Bouziri est un square du 18e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Saint-Bernard_-_Sa%C3%AFd-Bouziri</t>
+          <t>Square_Saint-Bernard_-_Saïd-Bouziri</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est entouré des rues Saint-Bruno, Saint-Mathieu, Stephenson et Affre ; il est accessible par le 16, rue Affre.
 Il est desservi par la ligne 12 à la station Marx Dormoy.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Saint-Bernard_-_Sa%C3%AFd-Bouziri</t>
+          <t>Square_Saint-Bernard_-_Saïd-Bouziri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de Saïd Bouziri (1947-2009) qui était un militant des droits humains[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de Saïd Bouziri (1947-2009) qui était un militant des droits humains,.
 Il n'y a pas de lien direct avec le Mouvement des sans-papiers à Paris en 1996 (Occupation de l'église Saint-Bernard) mais un lien direct avec le fait qu'il tenait une librairie militante rue Stephenson.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Saint-Bernard_-_Sa%C3%AFd-Bouziri</t>
+          <t>Square_Saint-Bernard_-_Saïd-Bouziri</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été renommé « square Saint-Bernard Saïd-Bouziri » par une décision du Conseil de Paris et inauguré par le maire de Paris Bertrand Delanoë le 23 juin 2012. 
 </t>
